--- a/frontend/studentdetails.xlsx
+++ b/frontend/studentdetails.xlsx
@@ -18,30 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>KtuId</t>
-  </si>
-  <si>
-    <t>Admissionno</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Semester</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>N Athul Kumar</t>
   </si>
   <si>
@@ -70,6 +46,30 @@
   </si>
   <si>
     <t>TVE18CS047</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ktuId</t>
+  </si>
+  <si>
+    <t>admissionNo</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,51 +439,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>180287</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>8606894094</v>
@@ -491,25 +491,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>180277</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>7894561235</v>
